--- a/data/math_question_stats.xlsx
+++ b/data/math_question_stats.xlsx
@@ -9980,8 +9980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L1201"/>
   <sheetViews>
-    <sheetView topLeftCell="A1164" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B1201"/>
+    <sheetView topLeftCell="A1175" workbookViewId="0">
+      <selection activeCell="L1201" sqref="L1201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34559,7 +34559,7 @@
         <v>1154</v>
       </c>
       <c r="B901" t="s">
-        <v>137</v>
+        <v>239</v>
       </c>
       <c r="C901" t="s">
         <v>2981</v>
@@ -39462,7 +39462,7 @@
         <v>1163</v>
       </c>
       <c r="B1081" t="s">
-        <v>239</v>
+        <v>49</v>
       </c>
       <c r="C1081" t="s">
         <v>2981</v>
@@ -39813,7 +39813,7 @@
         <v>47</v>
       </c>
       <c r="L1091" t="str">
-        <f t="shared" ref="L1091:L1141" si="17">IF(LEFT(A1091,4)="June",MID(A1091,6,4),MID(A1091,5,4))</f>
+        <f t="shared" ref="L1091:L1154" si="17">IF(LEFT(A1091,4)="June",MID(A1091,6,4),MID(A1091,5,4))</f>
         <v>2018</v>
       </c>
     </row>
@@ -41135,6 +41135,10 @@
       <c r="K1142" t="s">
         <v>212</v>
       </c>
+      <c r="L1142" t="str">
+        <f t="shared" si="17"/>
+        <v>2015</v>
+      </c>
     </row>
     <row r="1143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1143" t="s">
@@ -41167,6 +41171,10 @@
       <c r="K1143" t="s">
         <v>212</v>
       </c>
+      <c r="L1143" t="str">
+        <f t="shared" si="17"/>
+        <v>2015</v>
+      </c>
     </row>
     <row r="1144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1144" t="s">
@@ -41199,6 +41207,10 @@
       <c r="K1144" t="s">
         <v>122</v>
       </c>
+      <c r="L1144" t="str">
+        <f t="shared" si="17"/>
+        <v>2015</v>
+      </c>
     </row>
     <row r="1145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1145" t="s">
@@ -41231,6 +41243,10 @@
       <c r="K1145" t="s">
         <v>122</v>
       </c>
+      <c r="L1145" t="str">
+        <f t="shared" si="17"/>
+        <v>2016</v>
+      </c>
     </row>
     <row r="1146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1146" t="s">
@@ -41266,6 +41282,10 @@
       <c r="K1146" t="s">
         <v>23</v>
       </c>
+      <c r="L1146" t="str">
+        <f t="shared" si="17"/>
+        <v>2016</v>
+      </c>
     </row>
     <row r="1147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1147" t="s">
@@ -41298,6 +41318,10 @@
       <c r="K1147" t="s">
         <v>212</v>
       </c>
+      <c r="L1147" t="str">
+        <f t="shared" si="17"/>
+        <v>2016</v>
+      </c>
     </row>
     <row r="1148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1148" t="s">
@@ -41330,6 +41354,10 @@
       <c r="K1148" t="s">
         <v>212</v>
       </c>
+      <c r="L1148" t="str">
+        <f t="shared" si="17"/>
+        <v>2017</v>
+      </c>
     </row>
     <row r="1149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1149" t="s">
@@ -41365,6 +41393,10 @@
       <c r="K1149" t="s">
         <v>212</v>
       </c>
+      <c r="L1149" t="str">
+        <f t="shared" si="17"/>
+        <v>2017</v>
+      </c>
     </row>
     <row r="1150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1150" t="s">
@@ -41382,6 +41414,10 @@
       <c r="K1150" t="s">
         <v>55</v>
       </c>
+      <c r="L1150" t="str">
+        <f t="shared" si="17"/>
+        <v>2017</v>
+      </c>
     </row>
     <row r="1151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1151" t="s">
@@ -41399,6 +41435,10 @@
       <c r="K1151" t="s">
         <v>212</v>
       </c>
+      <c r="L1151" t="str">
+        <f t="shared" si="17"/>
+        <v>2018</v>
+      </c>
     </row>
     <row r="1152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1152" t="s">
@@ -41416,8 +41456,12 @@
       <c r="K1152" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="1153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1152" t="str">
+        <f t="shared" si="17"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1153" t="s">
         <v>1845</v>
       </c>
@@ -41433,8 +41477,12 @@
       <c r="K1153" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="1154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1153" t="str">
+        <f t="shared" si="17"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1154" t="s">
         <v>985</v>
       </c>
@@ -41450,8 +41498,12 @@
       <c r="K1154" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="1155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1154" t="str">
+        <f t="shared" si="17"/>
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1155" t="s">
         <v>1046</v>
       </c>
@@ -41467,8 +41519,12 @@
       <c r="K1155" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="1156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1155" t="str">
+        <f t="shared" ref="L1155:L1201" si="18">IF(LEFT(A1155,4)="June",MID(A1155,6,4),MID(A1155,5,4))</f>
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1156" t="s">
         <v>2916</v>
       </c>
@@ -41484,8 +41540,12 @@
       <c r="K1156" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="1157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1156" t="str">
+        <f t="shared" si="18"/>
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1157" t="s">
         <v>1906</v>
       </c>
@@ -41501,8 +41561,12 @@
       <c r="K1157" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="1158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1157" t="str">
+        <f t="shared" si="18"/>
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1158" t="s">
         <v>1107</v>
       </c>
@@ -41518,8 +41582,12 @@
       <c r="K1158" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="1159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1158" t="str">
+        <f t="shared" si="18"/>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1159" t="s">
         <v>3041</v>
       </c>
@@ -41535,8 +41603,12 @@
       <c r="K1159" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="1160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1159" t="str">
+        <f t="shared" si="18"/>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1160" t="s">
         <v>2977</v>
       </c>
@@ -41552,8 +41624,12 @@
       <c r="K1160" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="1161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1160" t="str">
+        <f t="shared" si="18"/>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1161" t="s">
         <v>1167</v>
       </c>
@@ -41569,8 +41645,12 @@
       <c r="K1161" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="1162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1161" t="str">
+        <f t="shared" si="18"/>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1162" t="s">
         <v>350</v>
       </c>
@@ -41604,8 +41684,12 @@
       <c r="K1162" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="1163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1162" t="str">
+        <f t="shared" si="18"/>
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1163" t="s">
         <v>2177</v>
       </c>
@@ -41636,8 +41720,12 @@
       <c r="K1163" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="1164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1163" t="str">
+        <f t="shared" si="18"/>
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1164" t="s">
         <v>1433</v>
       </c>
@@ -41668,8 +41756,12 @@
       <c r="K1164" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="1165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1164" t="str">
+        <f t="shared" si="18"/>
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1165" t="s">
         <v>633</v>
       </c>
@@ -41700,8 +41792,12 @@
       <c r="K1165" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="1166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1165" t="str">
+        <f t="shared" si="18"/>
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1166" t="s">
         <v>2489</v>
       </c>
@@ -41735,8 +41831,12 @@
       <c r="K1166" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="1167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1166" t="str">
+        <f t="shared" si="18"/>
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1167" t="s">
         <v>1714</v>
       </c>
@@ -41767,8 +41867,12 @@
       <c r="K1167" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="1168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1167" t="str">
+        <f t="shared" si="18"/>
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1168" t="s">
         <v>854</v>
       </c>
@@ -41799,8 +41903,12 @@
       <c r="K1168" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="1169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1168" t="str">
+        <f t="shared" si="18"/>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1169" t="s">
         <v>2783</v>
       </c>
@@ -41834,8 +41942,12 @@
       <c r="K1169" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="1170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1169" t="str">
+        <f t="shared" si="18"/>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1170" t="s">
         <v>1785</v>
       </c>
@@ -41851,8 +41963,12 @@
       <c r="K1170" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="1171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1170" t="str">
+        <f t="shared" si="18"/>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1171" t="s">
         <v>925</v>
       </c>
@@ -41868,8 +41984,12 @@
       <c r="K1171" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="1172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1171" t="str">
+        <f t="shared" si="18"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1172" t="s">
         <v>2856</v>
       </c>
@@ -41885,8 +42005,12 @@
       <c r="K1172" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="1173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1172" t="str">
+        <f t="shared" si="18"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1173" t="s">
         <v>1846</v>
       </c>
@@ -41902,8 +42026,12 @@
       <c r="K1173" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="1174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1173" t="str">
+        <f t="shared" si="18"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1174" t="s">
         <v>986</v>
       </c>
@@ -41919,8 +42047,12 @@
       <c r="K1174" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="1175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1174" t="str">
+        <f t="shared" si="18"/>
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1175" t="s">
         <v>1047</v>
       </c>
@@ -41936,8 +42068,12 @@
       <c r="K1175" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1175" t="str">
+        <f t="shared" si="18"/>
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1176" t="s">
         <v>2917</v>
       </c>
@@ -41953,8 +42089,12 @@
       <c r="K1176" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="1177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1176" t="str">
+        <f t="shared" si="18"/>
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1177" t="s">
         <v>1907</v>
       </c>
@@ -41970,8 +42110,12 @@
       <c r="K1177" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="1178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1177" t="str">
+        <f t="shared" si="18"/>
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1178" t="s">
         <v>1108</v>
       </c>
@@ -41987,8 +42131,12 @@
       <c r="K1178" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="1179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1178" t="str">
+        <f t="shared" si="18"/>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1179" t="s">
         <v>3042</v>
       </c>
@@ -42004,8 +42152,12 @@
       <c r="K1179" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="1180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1179" t="str">
+        <f t="shared" si="18"/>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1180" t="s">
         <v>2978</v>
       </c>
@@ -42021,8 +42173,12 @@
       <c r="K1180" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="1181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1180" t="str">
+        <f t="shared" si="18"/>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1181" t="s">
         <v>1168</v>
       </c>
@@ -42038,8 +42194,12 @@
       <c r="K1181" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="1182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1181" t="str">
+        <f t="shared" si="18"/>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1182" t="s">
         <v>357</v>
       </c>
@@ -42073,8 +42233,12 @@
       <c r="K1182" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="1183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1182" t="str">
+        <f t="shared" si="18"/>
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1183" t="s">
         <v>2183</v>
       </c>
@@ -42105,8 +42269,12 @@
       <c r="K1183" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="1184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1183" t="str">
+        <f t="shared" si="18"/>
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1184" t="s">
         <v>1437</v>
       </c>
@@ -42137,8 +42305,12 @@
       <c r="K1184" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="1185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1184" t="str">
+        <f t="shared" si="18"/>
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1185" t="s">
         <v>638</v>
       </c>
@@ -42169,8 +42341,12 @@
       <c r="K1185" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="1186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1185" t="str">
+        <f t="shared" si="18"/>
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1186" t="s">
         <v>2492</v>
       </c>
@@ -42204,8 +42380,12 @@
       <c r="K1186" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="1187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1186" t="str">
+        <f t="shared" si="18"/>
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1187" t="s">
         <v>1720</v>
       </c>
@@ -42236,8 +42416,12 @@
       <c r="K1187" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="1188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1187" t="str">
+        <f t="shared" si="18"/>
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1188" t="s">
         <v>860</v>
       </c>
@@ -42268,8 +42452,12 @@
       <c r="K1188" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="1189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1188" t="str">
+        <f t="shared" si="18"/>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1189" t="s">
         <v>2790</v>
       </c>
@@ -42303,8 +42491,12 @@
       <c r="K1189" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="1190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1189" t="str">
+        <f t="shared" si="18"/>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1190" t="s">
         <v>1786</v>
       </c>
@@ -42320,8 +42512,12 @@
       <c r="K1190" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="1191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1190" t="str">
+        <f t="shared" si="18"/>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1191" t="s">
         <v>926</v>
       </c>
@@ -42337,8 +42533,12 @@
       <c r="K1191" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="1192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1191" t="str">
+        <f t="shared" si="18"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1192" t="s">
         <v>2857</v>
       </c>
@@ -42354,8 +42554,12 @@
       <c r="K1192" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="1193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1192" t="str">
+        <f t="shared" si="18"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1193" t="s">
         <v>1847</v>
       </c>
@@ -42371,8 +42575,12 @@
       <c r="K1193" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="1194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1193" t="str">
+        <f t="shared" si="18"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1194" t="s">
         <v>987</v>
       </c>
@@ -42388,8 +42596,12 @@
       <c r="K1194" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="1195" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1194" t="str">
+        <f t="shared" si="18"/>
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1195" t="s">
         <v>1048</v>
       </c>
@@ -42405,8 +42617,12 @@
       <c r="K1195" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="1196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1195" t="str">
+        <f t="shared" si="18"/>
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1196" t="s">
         <v>2918</v>
       </c>
@@ -42422,8 +42638,12 @@
       <c r="K1196" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="1197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1196" t="str">
+        <f t="shared" si="18"/>
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1197" t="s">
         <v>1908</v>
       </c>
@@ -42439,8 +42659,12 @@
       <c r="K1197" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="1198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1197" t="str">
+        <f t="shared" si="18"/>
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1198" t="s">
         <v>1109</v>
       </c>
@@ -42456,8 +42680,12 @@
       <c r="K1198" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="1199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1198" t="str">
+        <f t="shared" si="18"/>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1199" t="s">
         <v>3043</v>
       </c>
@@ -42473,8 +42701,12 @@
       <c r="K1199" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="1200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1199" t="str">
+        <f t="shared" si="18"/>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1200" t="s">
         <v>2979</v>
       </c>
@@ -42490,8 +42722,12 @@
       <c r="K1200" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="1201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1200" t="str">
+        <f t="shared" si="18"/>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1201" t="s">
         <v>1169</v>
       </c>
@@ -42506,6 +42742,10 @@
       </c>
       <c r="K1201" t="s">
         <v>122</v>
+      </c>
+      <c r="L1201" t="str">
+        <f t="shared" si="18"/>
+        <v>2022</v>
       </c>
     </row>
   </sheetData>
@@ -42526,8 +42766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Y10" sqref="Y10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42556,27 +42796,27 @@
         <v>2015</v>
       </c>
       <c r="S1">
-        <f>K1</f>
+        <f t="shared" ref="S1:X1" si="0">K1</f>
         <v>2022</v>
       </c>
       <c r="T1">
-        <f>L1</f>
+        <f t="shared" si="0"/>
         <v>2021</v>
       </c>
       <c r="U1">
-        <f>M1</f>
+        <f t="shared" si="0"/>
         <v>2018</v>
       </c>
       <c r="V1">
-        <f>N1</f>
+        <f t="shared" si="0"/>
         <v>2017</v>
       </c>
       <c r="W1">
-        <f>O1</f>
+        <f t="shared" si="0"/>
         <v>2016</v>
       </c>
       <c r="X1">
-        <f>P1</f>
+        <f t="shared" si="0"/>
         <v>2015</v>
       </c>
     </row>
@@ -42597,15 +42837,15 @@
         <v>1</v>
       </c>
       <c r="F2" t="str">
-        <f t="shared" ref="F2:F29" si="0">INDEX(A$2:A$29,MATCH($E2,$C$2:$C$29,0))</f>
+        <f t="shared" ref="F2:F29" si="1">INDEX(A$2:A$29,MATCH($E2,$C$2:$C$29,0))</f>
         <v>Perimeter-Area-Volume</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G29" si="1">INDEX(B$2:B$29,MATCH($E2,$C$2:$C$29,0))</f>
+        <f t="shared" ref="G2:G29" si="2">INDEX(B$2:B$29,MATCH($E2,$C$2:$C$29,0))</f>
         <v>116</v>
       </c>
       <c r="H2" s="10">
-        <f t="shared" ref="H2:H29" si="2">G2/SUM($G$2:$G$29)</f>
+        <f t="shared" ref="H2:H29" si="3">G2/SUM($G$2:$G$29)</f>
         <v>9.6666666666666665E-2</v>
       </c>
       <c r="J2" t="str">
@@ -42622,7 +42862,7 @@
       </c>
       <c r="M2">
         <f>COUNTIFS(math!$B:$B,$J2,math!$L:$L,M$1)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N2">
         <f>COUNTIFS(math!$B:$B,$J2,math!$L:$L,N$1)</f>
@@ -42641,28 +42881,28 @@
         <v>Perimeter-Area-Volume</v>
       </c>
       <c r="S2" s="9">
-        <f>K2/SUM(K$2:K$29)</f>
-        <v>0.10964912280701754</v>
+        <f t="shared" ref="S2:S29" si="4">K2/SUM(K$2:K$29)</f>
+        <v>0.10416666666666667</v>
       </c>
       <c r="T2" s="9">
-        <f>L2/SUM(L$2:L$29)</f>
-        <v>7.0175438596491224E-2</v>
+        <f t="shared" ref="T2:T29" si="5">L2/SUM(L$2:L$29)</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="U2" s="9">
-        <f>M2/SUM(M$2:M$29)</f>
-        <v>8.1871345029239762E-2</v>
+        <f t="shared" ref="U2:U29" si="6">M2/SUM(M$2:M$29)</f>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="V2" s="9">
-        <f>N2/SUM(N$2:N$29)</f>
-        <v>0.13450292397660818</v>
+        <f t="shared" ref="V2:V29" si="7">N2/SUM(N$2:N$29)</f>
+        <v>0.12777777777777777</v>
       </c>
       <c r="W2" s="9">
-        <f>O2/SUM(O$2:O$29)</f>
-        <v>0.1111111111111111</v>
+        <f t="shared" ref="W2:W29" si="8">O2/SUM(O$2:O$29)</f>
+        <v>0.10555555555555556</v>
       </c>
       <c r="X2" s="9">
-        <f>P2/SUM(P$2:P$29)</f>
-        <v>0.10526315789473684</v>
+        <f t="shared" ref="X2:X29" si="9">P2/SUM(P$2:P$29)</f>
+        <v>0.1</v>
       </c>
       <c r="Y2" s="9"/>
     </row>
@@ -42679,36 +42919,36 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E29" si="3">E2+1</f>
+        <f t="shared" ref="E3:E29" si="10">E2+1</f>
         <v>2</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Plug in Numbers (Calc)</v>
       </c>
       <c r="G3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>106</v>
       </c>
       <c r="H3" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.8333333333333333E-2</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J29" si="4">F3</f>
+        <f t="shared" ref="J3:J29" si="11">F3</f>
         <v>Plug in Numbers (Calc)</v>
       </c>
       <c r="K3">
         <f>COUNTIFS(math!$B:$B,$J3,math!$L:$L,K$1)</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L3">
         <f>COUNTIFS(math!$B:$B,$J3,math!$L:$L,L$1)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M3">
         <f>COUNTIFS(math!$B:$B,$J3,math!$L:$L,M$1)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N3">
         <f>COUNTIFS(math!$B:$B,$J3,math!$L:$L,N$1)</f>
@@ -42723,32 +42963,32 @@
         <v>9</v>
       </c>
       <c r="R3" t="str">
-        <f t="shared" ref="R3:R29" si="5">J3</f>
+        <f t="shared" ref="R3:R29" si="12">J3</f>
         <v>Plug in Numbers (Calc)</v>
       </c>
       <c r="S3" s="9">
-        <f>K3/SUM(K$2:K$29)</f>
-        <v>0.14035087719298245</v>
+        <f t="shared" si="4"/>
+        <v>0.14166666666666666</v>
       </c>
       <c r="T3" s="9">
-        <f>L3/SUM(L$2:L$29)</f>
-        <v>0.10964912280701754</v>
+        <f t="shared" si="5"/>
+        <v>0.10833333333333334</v>
       </c>
       <c r="U3" s="9">
-        <f>M3/SUM(M$2:M$29)</f>
-        <v>9.9415204678362568E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.1</v>
       </c>
       <c r="V3" s="9">
-        <f>N3/SUM(N$2:N$29)</f>
-        <v>8.1871345029239762E-2</v>
+        <f t="shared" si="7"/>
+        <v>7.7777777777777779E-2</v>
       </c>
       <c r="W3" s="9">
-        <f>O3/SUM(O$2:O$29)</f>
-        <v>2.9239766081871343E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="X3" s="9">
-        <f>P3/SUM(P$2:P$29)</f>
-        <v>5.2631578947368418E-2</v>
+        <f t="shared" si="9"/>
+        <v>0.05</v>
       </c>
       <c r="Y3" s="9"/>
     </row>
@@ -42765,23 +43005,23 @@
         <v>10</v>
       </c>
       <c r="E4">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="1"/>
+        <v>Word Problems</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>104</v>
+      </c>
+      <c r="H4" s="10">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="F4" t="str">
-        <f t="shared" si="0"/>
-        <v>Word Problems</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="1"/>
-        <v>104</v>
-      </c>
-      <c r="H4" s="10">
-        <f t="shared" si="2"/>
         <v>8.666666666666667E-2</v>
       </c>
       <c r="J4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>Word Problems</v>
       </c>
       <c r="K4">
@@ -42806,35 +43046,35 @@
       </c>
       <c r="P4">
         <f>COUNTIFS(math!$B:$B,$J4,math!$L:$L,P$1)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R4" t="str">
+        <f t="shared" si="12"/>
+        <v>Word Problems</v>
+      </c>
+      <c r="S4" s="9">
+        <f t="shared" si="4"/>
+        <v>9.166666666666666E-2</v>
+      </c>
+      <c r="T4" s="9">
         <f t="shared" si="5"/>
-        <v>Word Problems</v>
-      </c>
-      <c r="S4" s="9">
-        <f>K4/SUM(K$2:K$29)</f>
-        <v>9.6491228070175433E-2</v>
-      </c>
-      <c r="T4" s="9">
-        <f>L4/SUM(L$2:L$29)</f>
-        <v>0.10526315789473684</v>
+        <v>0.1</v>
       </c>
       <c r="U4" s="9">
-        <f>M4/SUM(M$2:M$29)</f>
-        <v>0.13450292397660818</v>
+        <f t="shared" si="6"/>
+        <v>0.12777777777777777</v>
       </c>
       <c r="V4" s="9">
-        <f>N4/SUM(N$2:N$29)</f>
-        <v>8.771929824561403E-2</v>
+        <f t="shared" si="7"/>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="W4" s="9">
-        <f>O4/SUM(O$2:O$29)</f>
-        <v>4.6783625730994149E-2</v>
+        <f t="shared" si="8"/>
+        <v>4.4444444444444446E-2</v>
       </c>
       <c r="X4" s="9">
-        <f>P4/SUM(P$2:P$29)</f>
-        <v>6.4327485380116955E-2</v>
+        <f t="shared" si="9"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Y4" s="9"/>
     </row>
@@ -42851,23 +43091,23 @@
         <v>17</v>
       </c>
       <c r="E5">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="1"/>
+        <v>Equation Set Up (Conversions-Mixture-%Change)</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="H5" s="10">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="F5" t="str">
-        <f t="shared" si="0"/>
-        <v>Equation Set Up (Conversions-Mixture-%Change)</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="1"/>
-        <v>81</v>
-      </c>
-      <c r="H5" s="10">
-        <f t="shared" si="2"/>
         <v>6.7500000000000004E-2</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>Equation Set Up (Conversions-Mixture-%Change)</v>
       </c>
       <c r="K5">
@@ -42876,15 +43116,15 @@
       </c>
       <c r="L5">
         <f>COUNTIFS(math!$B:$B,$J5,math!$L:$L,L$1)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M5">
         <f>COUNTIFS(math!$B:$B,$J5,math!$L:$L,M$1)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N5">
         <f>COUNTIFS(math!$B:$B,$J5,math!$L:$L,N$1)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O5">
         <f>COUNTIFS(math!$B:$B,$J5,math!$L:$L,O$1)</f>
@@ -42892,35 +43132,35 @@
       </c>
       <c r="P5">
         <f>COUNTIFS(math!$B:$B,$J5,math!$L:$L,P$1)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R5" t="str">
+        <f t="shared" si="12"/>
+        <v>Equation Set Up (Conversions-Mixture-%Change)</v>
+      </c>
+      <c r="S5" s="9">
+        <f t="shared" si="4"/>
+        <v>7.0833333333333331E-2</v>
+      </c>
+      <c r="T5" s="9">
         <f t="shared" si="5"/>
-        <v>Equation Set Up (Conversions-Mixture-%Change)</v>
-      </c>
-      <c r="S5" s="9">
-        <f>K5/SUM(K$2:K$29)</f>
-        <v>7.4561403508771926E-2</v>
-      </c>
-      <c r="T5" s="9">
-        <f>L5/SUM(L$2:L$29)</f>
-        <v>7.4561403508771926E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="U5" s="9">
-        <f>M5/SUM(M$2:M$29)</f>
-        <v>5.8479532163742687E-2</v>
+        <f t="shared" si="6"/>
+        <v>6.1111111111111109E-2</v>
       </c>
       <c r="V5" s="9">
-        <f>N5/SUM(N$2:N$29)</f>
-        <v>5.2631578947368418E-2</v>
+        <f t="shared" si="7"/>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="W5" s="9">
-        <f>O5/SUM(O$2:O$29)</f>
-        <v>7.6023391812865493E-2</v>
+        <f t="shared" si="8"/>
+        <v>7.2222222222222215E-2</v>
       </c>
       <c r="X5" s="9">
-        <f>P5/SUM(P$2:P$29)</f>
-        <v>6.4327485380116955E-2</v>
+        <f t="shared" si="9"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Y5" s="9"/>
     </row>
@@ -42937,36 +43177,36 @@
         <v>5</v>
       </c>
       <c r="E6">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="1"/>
+        <v>Probability-Combinations-Permutations</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="H6" s="10">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="F6" t="str">
-        <f t="shared" si="0"/>
-        <v>Probability-Combinations-Permutations</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="1"/>
-        <v>71</v>
-      </c>
-      <c r="H6" s="10">
-        <f t="shared" si="2"/>
         <v>5.9166666666666666E-2</v>
       </c>
       <c r="J6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>Probability-Combinations-Permutations</v>
       </c>
       <c r="K6">
         <f>COUNTIFS(math!$B:$B,$J6,math!$L:$L,K$1)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L6">
         <f>COUNTIFS(math!$B:$B,$J6,math!$L:$L,L$1)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M6">
         <f>COUNTIFS(math!$B:$B,$J6,math!$L:$L,M$1)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N6">
         <f>COUNTIFS(math!$B:$B,$J6,math!$L:$L,N$1)</f>
@@ -42974,39 +43214,39 @@
       </c>
       <c r="O6">
         <f>COUNTIFS(math!$B:$B,$J6,math!$L:$L,O$1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P6">
         <f>COUNTIFS(math!$B:$B,$J6,math!$L:$L,P$1)</f>
         <v>6</v>
       </c>
       <c r="R6" t="str">
+        <f t="shared" si="12"/>
+        <v>Probability-Combinations-Permutations</v>
+      </c>
+      <c r="S6" s="9">
+        <f t="shared" si="4"/>
+        <v>7.9166666666666663E-2</v>
+      </c>
+      <c r="T6" s="9">
         <f t="shared" si="5"/>
-        <v>Probability-Combinations-Permutations</v>
-      </c>
-      <c r="S6" s="9">
-        <f>K6/SUM(K$2:K$29)</f>
-        <v>7.4561403508771926E-2</v>
-      </c>
-      <c r="T6" s="9">
-        <f>L6/SUM(L$2:L$29)</f>
-        <v>4.3859649122807015E-2</v>
+        <v>0.05</v>
       </c>
       <c r="U6" s="9">
-        <f>M6/SUM(M$2:M$29)</f>
-        <v>4.6783625730994149E-2</v>
+        <f t="shared" si="6"/>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="V6" s="9">
-        <f>N6/SUM(N$2:N$29)</f>
-        <v>9.3567251461988299E-2</v>
+        <f t="shared" si="7"/>
+        <v>8.8888888888888892E-2</v>
       </c>
       <c r="W6" s="9">
-        <f>O6/SUM(O$2:O$29)</f>
-        <v>4.0935672514619881E-2</v>
+        <f t="shared" si="8"/>
+        <v>4.4444444444444446E-2</v>
       </c>
       <c r="X6" s="9">
-        <f>P6/SUM(P$2:P$29)</f>
-        <v>3.5087719298245612E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="Y6" s="9"/>
     </row>
@@ -43023,23 +43263,23 @@
         <v>1</v>
       </c>
       <c r="E7">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="1"/>
+        <v>Geometry Rules</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="H7" s="10">
         <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="F7" t="str">
-        <f t="shared" si="0"/>
-        <v>Geometry Rules</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="1"/>
-        <v>56</v>
-      </c>
-      <c r="H7" s="10">
-        <f t="shared" si="2"/>
         <v>4.6666666666666669E-2</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>Geometry Rules</v>
       </c>
       <c r="K7">
@@ -43056,43 +43296,43 @@
       </c>
       <c r="N7">
         <f>COUNTIFS(math!$B:$B,$J7,math!$L:$L,N$1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O7">
         <f>COUNTIFS(math!$B:$B,$J7,math!$L:$L,O$1)</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="P7">
         <f>COUNTIFS(math!$B:$B,$J7,math!$L:$L,P$1)</f>
         <v>12</v>
       </c>
       <c r="R7" t="str">
+        <f t="shared" si="12"/>
+        <v>Geometry Rules</v>
+      </c>
+      <c r="S7" s="9">
+        <f t="shared" si="4"/>
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="T7" s="9">
         <f t="shared" si="5"/>
-        <v>Geometry Rules</v>
-      </c>
-      <c r="S7" s="9">
-        <f>K7/SUM(K$2:K$29)</f>
-        <v>3.9473684210526314E-2</v>
-      </c>
-      <c r="T7" s="9">
-        <f>L7/SUM(L$2:L$29)</f>
-        <v>2.1929824561403508E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="U7" s="9">
-        <f>M7/SUM(M$2:M$29)</f>
-        <v>3.5087719298245612E-2</v>
+        <f t="shared" si="6"/>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="V7" s="9">
-        <f>N7/SUM(N$2:N$29)</f>
-        <v>4.0935672514619881E-2</v>
+        <f t="shared" si="7"/>
+        <v>4.4444444444444446E-2</v>
       </c>
       <c r="W7" s="9">
-        <f>O7/SUM(O$2:O$29)</f>
-        <v>7.6023391812865493E-2</v>
+        <f t="shared" si="8"/>
+        <v>8.8888888888888892E-2</v>
       </c>
       <c r="X7" s="9">
-        <f>P7/SUM(P$2:P$29)</f>
-        <v>7.0175438596491224E-2</v>
+        <f t="shared" si="9"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Y7" s="9"/>
     </row>
@@ -43109,28 +43349,28 @@
         <v>12</v>
       </c>
       <c r="E8">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="1"/>
+        <v>Foil-Factor-Multiples</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="H8" s="10">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="F8" t="str">
-        <f t="shared" si="0"/>
-        <v>Foil-Factor-Multiples</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="H8" s="10">
-        <f t="shared" si="2"/>
         <v>4.3333333333333335E-2</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>Foil-Factor-Multiples</v>
       </c>
       <c r="K8">
         <f>COUNTIFS(math!$B:$B,$J8,math!$L:$L,K$1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L8">
         <f>COUNTIFS(math!$B:$B,$J8,math!$L:$L,L$1)</f>
@@ -43138,11 +43378,11 @@
       </c>
       <c r="M8">
         <f>COUNTIFS(math!$B:$B,$J8,math!$L:$L,M$1)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N8">
         <f>COUNTIFS(math!$B:$B,$J8,math!$L:$L,N$1)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O8">
         <f>COUNTIFS(math!$B:$B,$J8,math!$L:$L,O$1)</f>
@@ -43153,32 +43393,32 @@
         <v>11</v>
       </c>
       <c r="R8" t="str">
+        <f t="shared" si="12"/>
+        <v>Foil-Factor-Multiples</v>
+      </c>
+      <c r="S8" s="9">
+        <f t="shared" si="4"/>
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="T8" s="9">
         <f t="shared" si="5"/>
-        <v>Foil-Factor-Multiples</v>
-      </c>
-      <c r="S8" s="9">
-        <f>K8/SUM(K$2:K$29)</f>
-        <v>3.5087719298245612E-2</v>
-      </c>
-      <c r="T8" s="9">
-        <f>L8/SUM(L$2:L$29)</f>
-        <v>5.2631578947368418E-2</v>
+        <v>0.05</v>
       </c>
       <c r="U8" s="9">
-        <f>M8/SUM(M$2:M$29)</f>
-        <v>2.9239766081871343E-2</v>
+        <f t="shared" si="6"/>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="V8" s="9">
-        <f>N8/SUM(N$2:N$29)</f>
-        <v>1.7543859649122806E-2</v>
+        <f t="shared" si="7"/>
+        <v>2.2222222222222223E-2</v>
       </c>
       <c r="W8" s="9">
-        <f>O8/SUM(O$2:O$29)</f>
-        <v>5.8479532163742687E-2</v>
+        <f t="shared" si="8"/>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="X8" s="9">
-        <f>P8/SUM(P$2:P$29)</f>
-        <v>6.4327485380116955E-2</v>
+        <f t="shared" si="9"/>
+        <v>6.1111111111111109E-2</v>
       </c>
       <c r="Y8" s="9"/>
     </row>
@@ -43188,35 +43428,35 @@
       </c>
       <c r="B9">
         <f>COUNTIF(math!B:B,A9)</f>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9">
         <f>COUNTIF($B$2:$B$29,"&gt;"&amp;B9)+COUNTIF($B$2:$B9,B9)</f>
         <v>9</v>
       </c>
       <c r="E9">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="1"/>
+        <v>SOHCAHTOA-PYTHAG</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="H9" s="10">
         <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="F9" t="str">
-        <f t="shared" si="0"/>
-        <v>SOHCAHTOA-PYTHAG</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="H9" s="10">
-        <f t="shared" si="2"/>
         <v>4.3333333333333335E-2</v>
       </c>
       <c r="J9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>SOHCAHTOA-PYTHAG</v>
       </c>
       <c r="K9">
         <f>COUNTIFS(math!$B:$B,$J9,math!$L:$L,K$1)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L9">
         <f>COUNTIFS(math!$B:$B,$J9,math!$L:$L,L$1)</f>
@@ -43236,35 +43476,35 @@
       </c>
       <c r="P9">
         <f>COUNTIFS(math!$B:$B,$J9,math!$L:$L,P$1)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R9" t="str">
+        <f t="shared" si="12"/>
+        <v>SOHCAHTOA-PYTHAG</v>
+      </c>
+      <c r="S9" s="9">
+        <f t="shared" si="4"/>
+        <v>4.583333333333333E-2</v>
+      </c>
+      <c r="T9" s="9">
         <f t="shared" si="5"/>
-        <v>SOHCAHTOA-PYTHAG</v>
-      </c>
-      <c r="S9" s="9">
-        <f>K9/SUM(K$2:K$29)</f>
-        <v>4.3859649122807015E-2</v>
-      </c>
-      <c r="T9" s="9">
-        <f>L9/SUM(L$2:L$29)</f>
-        <v>3.9473684210526314E-2</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="U9" s="9">
-        <f>M9/SUM(M$2:M$29)</f>
-        <v>4.0935672514619881E-2</v>
+        <f t="shared" si="6"/>
+        <v>3.888888888888889E-2</v>
       </c>
       <c r="V9" s="9">
-        <f>N9/SUM(N$2:N$29)</f>
-        <v>2.9239766081871343E-2</v>
+        <f t="shared" si="7"/>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="W9" s="9">
-        <f>O9/SUM(O$2:O$29)</f>
-        <v>5.2631578947368418E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.05</v>
       </c>
       <c r="X9" s="9">
-        <f>P9/SUM(P$2:P$29)</f>
-        <v>5.8479532163742687E-2</v>
+        <f t="shared" si="9"/>
+        <v>6.1111111111111109E-2</v>
       </c>
       <c r="Y9" s="9"/>
     </row>
@@ -43281,32 +43521,32 @@
         <v>14</v>
       </c>
       <c r="E10">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="1"/>
+        <v>Mean-Median-Mode</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="H10" s="10">
         <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="F10" t="str">
-        <f t="shared" si="0"/>
-        <v>Mean-Median-Mode</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-      <c r="H10" s="10">
-        <f t="shared" si="2"/>
-        <v>4.0833333333333333E-2</v>
+        <v>0.04</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>Mean-Median-Mode</v>
       </c>
       <c r="K10">
         <f>COUNTIFS(math!$B:$B,$J10,math!$L:$L,K$1)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L10">
         <f>COUNTIFS(math!$B:$B,$J10,math!$L:$L,L$1)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M10">
         <f>COUNTIFS(math!$B:$B,$J10,math!$L:$L,M$1)</f>
@@ -43325,32 +43565,32 @@
         <v>3</v>
       </c>
       <c r="R10" t="str">
+        <f t="shared" si="12"/>
+        <v>Mean-Median-Mode</v>
+      </c>
+      <c r="S10" s="9">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="T10" s="9">
         <f t="shared" si="5"/>
-        <v>Mean-Median-Mode</v>
-      </c>
-      <c r="S10" s="9">
-        <f>K10/SUM(K$2:K$29)</f>
-        <v>3.0701754385964911E-2</v>
-      </c>
-      <c r="T10" s="9">
-        <f>L10/SUM(L$2:L$29)</f>
-        <v>3.9473684210526314E-2</v>
+        <v>4.583333333333333E-2</v>
       </c>
       <c r="U10" s="9">
-        <f>M10/SUM(M$2:M$29)</f>
-        <v>8.1871345029239762E-2</v>
+        <f t="shared" si="6"/>
+        <v>7.7777777777777779E-2</v>
       </c>
       <c r="V10" s="9">
-        <f>N10/SUM(N$2:N$29)</f>
-        <v>5.2631578947368418E-2</v>
+        <f t="shared" si="7"/>
+        <v>0.05</v>
       </c>
       <c r="W10" s="9">
-        <f>O10/SUM(O$2:O$29)</f>
-        <v>2.9239766081871343E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="X10" s="9">
-        <f>P10/SUM(P$2:P$29)</f>
-        <v>1.7543859649122806E-2</v>
+        <f t="shared" si="9"/>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="Y10" s="9"/>
     </row>
@@ -43367,23 +43607,23 @@
         <v>23</v>
       </c>
       <c r="E11">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="1"/>
+        <v>Ratio and Proportions</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="H11" s="10">
         <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="F11" t="str">
-        <f t="shared" si="0"/>
-        <v>Ratio and Proportions</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="H11" s="10">
-        <f t="shared" si="2"/>
         <v>3.833333333333333E-2</v>
       </c>
       <c r="J11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>Ratio and Proportions</v>
       </c>
       <c r="K11">
@@ -43411,32 +43651,32 @@
         <v>3</v>
       </c>
       <c r="R11" t="str">
+        <f t="shared" si="12"/>
+        <v>Ratio and Proportions</v>
+      </c>
+      <c r="S11" s="9">
+        <f t="shared" si="4"/>
+        <v>2.9166666666666667E-2</v>
+      </c>
+      <c r="T11" s="9">
         <f t="shared" si="5"/>
-        <v>Ratio and Proportions</v>
-      </c>
-      <c r="S11" s="9">
-        <f>K11/SUM(K$2:K$29)</f>
-        <v>3.0701754385964911E-2</v>
-      </c>
-      <c r="T11" s="9">
-        <f>L11/SUM(L$2:L$29)</f>
-        <v>4.3859649122807015E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="U11" s="9">
-        <f>M11/SUM(M$2:M$29)</f>
-        <v>4.6783625730994149E-2</v>
+        <f t="shared" si="6"/>
+        <v>4.4444444444444446E-2</v>
       </c>
       <c r="V11" s="9">
-        <f>N11/SUM(N$2:N$29)</f>
-        <v>5.2631578947368418E-2</v>
+        <f t="shared" si="7"/>
+        <v>0.05</v>
       </c>
       <c r="W11" s="9">
-        <f>O11/SUM(O$2:O$29)</f>
-        <v>5.2631578947368418E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.05</v>
       </c>
       <c r="X11" s="9">
-        <f>P11/SUM(P$2:P$29)</f>
-        <v>1.7543859649122806E-2</v>
+        <f t="shared" si="9"/>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="Y11" s="9"/>
     </row>
@@ -43453,32 +43693,32 @@
         <v>6</v>
       </c>
       <c r="E12">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="1"/>
+        <v>Vocab</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="H12" s="10">
         <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="F12" t="str">
-        <f t="shared" si="0"/>
-        <v>Vocab</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="H12" s="10">
-        <f t="shared" si="2"/>
         <v>3.5833333333333335E-2</v>
       </c>
       <c r="J12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>Vocab</v>
       </c>
       <c r="K12">
         <f>COUNTIFS(math!$B:$B,$J12,math!$L:$L,K$1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L12">
         <f>COUNTIFS(math!$B:$B,$J12,math!$L:$L,L$1)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M12">
         <f>COUNTIFS(math!$B:$B,$J12,math!$L:$L,M$1)</f>
@@ -43490,39 +43730,39 @@
       </c>
       <c r="O12">
         <f>COUNTIFS(math!$B:$B,$J12,math!$L:$L,O$1)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P12">
         <f>COUNTIFS(math!$B:$B,$J12,math!$L:$L,P$1)</f>
         <v>6</v>
       </c>
       <c r="R12" t="str">
+        <f t="shared" si="12"/>
+        <v>Vocab</v>
+      </c>
+      <c r="S12" s="9">
+        <f t="shared" si="4"/>
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="T12" s="9">
         <f t="shared" si="5"/>
-        <v>Vocab</v>
-      </c>
-      <c r="S12" s="9">
-        <f>K12/SUM(K$2:K$29)</f>
-        <v>3.5087719298245612E-2</v>
-      </c>
-      <c r="T12" s="9">
-        <f>L12/SUM(L$2:L$29)</f>
-        <v>4.8245614035087717E-2</v>
+        <v>0.05</v>
       </c>
       <c r="U12" s="9">
-        <f>M12/SUM(M$2:M$29)</f>
-        <v>2.9239766081871343E-2</v>
+        <f t="shared" si="6"/>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="V12" s="9">
-        <f>N12/SUM(N$2:N$29)</f>
-        <v>3.5087719298245612E-2</v>
+        <f t="shared" si="7"/>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="W12" s="9">
-        <f>O12/SUM(O$2:O$29)</f>
-        <v>2.3391812865497075E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="X12" s="9">
-        <f>P12/SUM(P$2:P$29)</f>
-        <v>3.5087719298245612E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="Y12" s="9"/>
     </row>
@@ -43539,23 +43779,23 @@
         <v>15</v>
       </c>
       <c r="E13">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="1"/>
+        <v>Lines</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="H13" s="10">
         <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="F13" t="str">
-        <f t="shared" si="0"/>
-        <v>Lines</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="H13" s="10">
-        <f t="shared" si="2"/>
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="J13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>Lines</v>
       </c>
       <c r="K13">
@@ -43576,39 +43816,39 @@
       </c>
       <c r="O13">
         <f>COUNTIFS(math!$B:$B,$J13,math!$L:$L,O$1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P13">
         <f>COUNTIFS(math!$B:$B,$J13,math!$L:$L,P$1)</f>
         <v>10</v>
       </c>
       <c r="R13" t="str">
+        <f t="shared" si="12"/>
+        <v>Lines</v>
+      </c>
+      <c r="S13" s="9">
+        <f t="shared" si="4"/>
+        <v>2.9166666666666667E-2</v>
+      </c>
+      <c r="T13" s="9">
         <f t="shared" si="5"/>
-        <v>Lines</v>
-      </c>
-      <c r="S13" s="9">
-        <f>K13/SUM(K$2:K$29)</f>
-        <v>3.0701754385964911E-2</v>
-      </c>
-      <c r="T13" s="9">
-        <f>L13/SUM(L$2:L$29)</f>
-        <v>2.1929824561403508E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="U13" s="9">
-        <f>M13/SUM(M$2:M$29)</f>
-        <v>4.0935672514619881E-2</v>
+        <f t="shared" si="6"/>
+        <v>3.888888888888889E-2</v>
       </c>
       <c r="V13" s="9">
-        <f>N13/SUM(N$2:N$29)</f>
-        <v>2.3391812865497075E-2</v>
+        <f t="shared" si="7"/>
+        <v>2.2222222222222223E-2</v>
       </c>
       <c r="W13" s="9">
-        <f>O13/SUM(O$2:O$29)</f>
-        <v>4.6783625730994149E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.05</v>
       </c>
       <c r="X13" s="9">
-        <f>P13/SUM(P$2:P$29)</f>
-        <v>5.8479532163742687E-2</v>
+        <f t="shared" si="9"/>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="Y13" s="9"/>
     </row>
@@ -43625,23 +43865,23 @@
         <v>4</v>
       </c>
       <c r="E14">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="1"/>
+        <v>Circles-Ellipses</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="H14" s="10">
         <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="F14" t="str">
-        <f t="shared" si="0"/>
-        <v>Circles-Ellipses</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="H14" s="10">
-        <f t="shared" si="2"/>
         <v>0.03</v>
       </c>
       <c r="J14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>Circles-Ellipses</v>
       </c>
       <c r="K14">
@@ -43650,51 +43890,51 @@
       </c>
       <c r="L14">
         <f>COUNTIFS(math!$B:$B,$J14,math!$L:$L,L$1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M14">
         <f>COUNTIFS(math!$B:$B,$J14,math!$L:$L,M$1)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N14">
         <f>COUNTIFS(math!$B:$B,$J14,math!$L:$L,N$1)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O14">
         <f>COUNTIFS(math!$B:$B,$J14,math!$L:$L,O$1)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P14">
         <f>COUNTIFS(math!$B:$B,$J14,math!$L:$L,P$1)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R14" t="str">
+        <f t="shared" si="12"/>
+        <v>Circles-Ellipses</v>
+      </c>
+      <c r="S14" s="9">
+        <f t="shared" si="4"/>
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T14" s="9">
         <f t="shared" si="5"/>
-        <v>Circles-Ellipses</v>
-      </c>
-      <c r="S14" s="9">
-        <f>K14/SUM(K$2:K$29)</f>
-        <v>2.1929824561403508E-2</v>
-      </c>
-      <c r="T14" s="9">
-        <f>L14/SUM(L$2:L$29)</f>
-        <v>3.0701754385964911E-2</v>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="U14" s="9">
-        <f>M14/SUM(M$2:M$29)</f>
-        <v>2.9239766081871343E-2</v>
+        <f t="shared" si="6"/>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="V14" s="9">
-        <f>N14/SUM(N$2:N$29)</f>
-        <v>1.1695906432748537E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="W14" s="9">
-        <f>O14/SUM(O$2:O$29)</f>
-        <v>1.7543859649122806E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.2222222222222223E-2</v>
       </c>
       <c r="X14" s="9">
-        <f>P14/SUM(P$2:P$29)</f>
-        <v>5.2631578947368418E-2</v>
+        <f t="shared" si="9"/>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="Y14" s="9"/>
     </row>
@@ -43711,23 +43951,23 @@
         <v>2</v>
       </c>
       <c r="E15">
+        <f t="shared" si="10"/>
+        <v>14</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="1"/>
+        <v>Data Interpretation</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="H15" s="10">
         <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="F15" t="str">
-        <f t="shared" si="0"/>
-        <v>Data Interpretation</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="H15" s="10">
-        <f t="shared" si="2"/>
         <v>2.8333333333333332E-2</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>Data Interpretation</v>
       </c>
       <c r="K15">
@@ -43755,32 +43995,32 @@
         <v>2</v>
       </c>
       <c r="R15" t="str">
+        <f t="shared" si="12"/>
+        <v>Data Interpretation</v>
+      </c>
+      <c r="S15" s="9">
+        <f t="shared" si="4"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="T15" s="9">
         <f t="shared" si="5"/>
-        <v>Data Interpretation</v>
-      </c>
-      <c r="S15" s="9">
-        <f>K15/SUM(K$2:K$29)</f>
-        <v>3.5087719298245612E-2</v>
-      </c>
-      <c r="T15" s="9">
-        <f>L15/SUM(L$2:L$29)</f>
-        <v>5.701754385964912E-2</v>
+        <v>5.4166666666666669E-2</v>
       </c>
       <c r="U15" s="9">
-        <f>M15/SUM(M$2:M$29)</f>
-        <v>1.7543859649122806E-2</v>
+        <f t="shared" si="6"/>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="V15" s="9">
-        <f>N15/SUM(N$2:N$29)</f>
-        <v>2.3391812865497075E-2</v>
+        <f t="shared" si="7"/>
+        <v>2.2222222222222223E-2</v>
       </c>
       <c r="W15" s="9">
-        <f>O15/SUM(O$2:O$29)</f>
-        <v>2.3391812865497075E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.2222222222222223E-2</v>
       </c>
       <c r="X15" s="9">
-        <f>P15/SUM(P$2:P$29)</f>
-        <v>1.1695906432748537E-2</v>
+        <f t="shared" si="9"/>
+        <v>1.1111111111111112E-2</v>
       </c>
       <c r="Y15" s="9"/>
     </row>
@@ -43797,28 +44037,28 @@
         <v>3</v>
       </c>
       <c r="E16">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="1"/>
+        <v>Exponent Rules</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="H16" s="10">
         <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="F16" t="str">
-        <f t="shared" si="0"/>
-        <v>Exponent Rules</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="H16" s="10">
-        <f t="shared" si="2"/>
         <v>2.75E-2</v>
       </c>
       <c r="J16" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>Exponent Rules</v>
       </c>
       <c r="K16">
         <f>COUNTIFS(math!$B:$B,$J16,math!$L:$L,K$1)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L16">
         <f>COUNTIFS(math!$B:$B,$J16,math!$L:$L,L$1)</f>
@@ -43834,39 +44074,39 @@
       </c>
       <c r="O16">
         <f>COUNTIFS(math!$B:$B,$J16,math!$L:$L,O$1)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P16">
         <f>COUNTIFS(math!$B:$B,$J16,math!$L:$L,P$1)</f>
         <v>6</v>
       </c>
       <c r="R16" t="str">
+        <f t="shared" si="12"/>
+        <v>Exponent Rules</v>
+      </c>
+      <c r="S16" s="9">
+        <f t="shared" si="4"/>
+        <v>2.9166666666666667E-2</v>
+      </c>
+      <c r="T16" s="9">
         <f t="shared" si="5"/>
-        <v>Exponent Rules</v>
-      </c>
-      <c r="S16" s="9">
-        <f>K16/SUM(K$2:K$29)</f>
-        <v>2.1929824561403508E-2</v>
-      </c>
-      <c r="T16" s="9">
-        <f>L16/SUM(L$2:L$29)</f>
-        <v>1.7543859649122806E-2</v>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="U16" s="9">
-        <f>M16/SUM(M$2:M$29)</f>
-        <v>4.0935672514619881E-2</v>
+        <f t="shared" si="6"/>
+        <v>3.888888888888889E-2</v>
       </c>
       <c r="V16" s="9">
-        <f>N16/SUM(N$2:N$29)</f>
-        <v>2.9239766081871343E-2</v>
+        <f t="shared" si="7"/>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="W16" s="9">
-        <f>O16/SUM(O$2:O$29)</f>
-        <v>1.7543859649122806E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.2222222222222223E-2</v>
       </c>
       <c r="X16" s="9">
-        <f>P16/SUM(P$2:P$29)</f>
-        <v>3.5087719298245612E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="Y16" s="9"/>
     </row>
@@ -43883,40 +44123,40 @@
         <v>26</v>
       </c>
       <c r="E17">
+        <f t="shared" si="10"/>
+        <v>16</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="1"/>
+        <v>Trig</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="H17" s="10">
         <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="F17" t="str">
-        <f t="shared" si="0"/>
-        <v>Trig</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="H17" s="10">
-        <f t="shared" si="2"/>
         <v>2.75E-2</v>
       </c>
       <c r="J17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>Trig</v>
       </c>
       <c r="K17">
         <f>COUNTIFS(math!$B:$B,$J17,math!$L:$L,K$1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L17">
         <f>COUNTIFS(math!$B:$B,$J17,math!$L:$L,L$1)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M17">
         <f>COUNTIFS(math!$B:$B,$J17,math!$L:$L,M$1)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N17">
         <f>COUNTIFS(math!$B:$B,$J17,math!$L:$L,N$1)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O17">
         <f>COUNTIFS(math!$B:$B,$J17,math!$L:$L,O$1)</f>
@@ -43924,35 +44164,35 @@
       </c>
       <c r="P17">
         <f>COUNTIFS(math!$B:$B,$J17,math!$L:$L,P$1)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R17" t="str">
+        <f t="shared" si="12"/>
+        <v>Trig</v>
+      </c>
+      <c r="S17" s="9">
+        <f t="shared" si="4"/>
+        <v>2.9166666666666667E-2</v>
+      </c>
+      <c r="T17" s="9">
         <f t="shared" si="5"/>
-        <v>Trig</v>
-      </c>
-      <c r="S17" s="9">
-        <f>K17/SUM(K$2:K$29)</f>
-        <v>2.6315789473684209E-2</v>
-      </c>
-      <c r="T17" s="9">
-        <f>L17/SUM(L$2:L$29)</f>
-        <v>1.7543859649122806E-2</v>
+        <v>2.9166666666666667E-2</v>
       </c>
       <c r="U17" s="9">
-        <f>M17/SUM(M$2:M$29)</f>
-        <v>1.1695906432748537E-2</v>
+        <f t="shared" si="6"/>
+        <v>2.2222222222222223E-2</v>
       </c>
       <c r="V17" s="9">
-        <f>N17/SUM(N$2:N$29)</f>
-        <v>2.3391812865497075E-2</v>
+        <f t="shared" si="7"/>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="W17" s="9">
-        <f>O17/SUM(O$2:O$29)</f>
-        <v>3.5087719298245612E-2</v>
+        <f t="shared" si="8"/>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="X17" s="9">
-        <f>P17/SUM(P$2:P$29)</f>
-        <v>1.1695906432748537E-2</v>
+        <f t="shared" si="9"/>
+        <v>2.2222222222222223E-2</v>
       </c>
       <c r="Y17" s="9"/>
     </row>
@@ -43969,23 +44209,23 @@
         <v>27</v>
       </c>
       <c r="E18">
+        <f t="shared" si="10"/>
+        <v>17</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="1"/>
+        <v>Solving Algebra</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="H18" s="10">
         <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="F18" t="str">
-        <f t="shared" si="0"/>
-        <v>Solving Algebra</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="H18" s="10">
-        <f t="shared" si="2"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="J18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>Solving Algebra</v>
       </c>
       <c r="K18">
@@ -44013,32 +44253,32 @@
         <v>7</v>
       </c>
       <c r="R18" t="str">
+        <f t="shared" si="12"/>
+        <v>Solving Algebra</v>
+      </c>
+      <c r="S18" s="9">
+        <f t="shared" si="4"/>
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="T18" s="9">
         <f t="shared" si="5"/>
-        <v>Solving Algebra</v>
-      </c>
-      <c r="S18" s="9">
-        <f>K18/SUM(K$2:K$29)</f>
-        <v>2.1929824561403508E-2</v>
-      </c>
-      <c r="T18" s="9">
-        <f>L18/SUM(L$2:L$29)</f>
-        <v>2.1929824561403508E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="U18" s="9">
-        <f>M18/SUM(M$2:M$29)</f>
-        <v>1.7543859649122806E-2</v>
+        <f t="shared" si="6"/>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="V18" s="9">
-        <f>N18/SUM(N$2:N$29)</f>
-        <v>1.7543859649122806E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="W18" s="9">
-        <f>O18/SUM(O$2:O$29)</f>
-        <v>4.0935672514619881E-2</v>
+        <f t="shared" si="8"/>
+        <v>3.888888888888889E-2</v>
       </c>
       <c r="X18" s="9">
-        <f>P18/SUM(P$2:P$29)</f>
-        <v>4.0935672514619881E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.888888888888889E-2</v>
       </c>
       <c r="Y18" s="9"/>
     </row>
@@ -44055,23 +44295,23 @@
         <v>21</v>
       </c>
       <c r="E19">
+        <f t="shared" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="1"/>
+        <v>Coordinate Geometry</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="H19" s="10">
         <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="F19" t="str">
-        <f t="shared" si="0"/>
-        <v>Coordinate Geometry</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="H19" s="10">
-        <f t="shared" si="2"/>
         <v>2.4166666666666666E-2</v>
       </c>
       <c r="J19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>Coordinate Geometry</v>
       </c>
       <c r="K19">
@@ -44099,32 +44339,32 @@
         <v>8</v>
       </c>
       <c r="R19" t="str">
+        <f t="shared" si="12"/>
+        <v>Coordinate Geometry</v>
+      </c>
+      <c r="S19" s="9">
+        <f t="shared" si="4"/>
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="T19" s="9">
         <f t="shared" si="5"/>
-        <v>Coordinate Geometry</v>
-      </c>
-      <c r="S19" s="9">
-        <f>K19/SUM(K$2:K$29)</f>
-        <v>4.3859649122807015E-3</v>
-      </c>
-      <c r="T19" s="9">
-        <f>L19/SUM(L$2:L$29)</f>
-        <v>8.771929824561403E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="U19" s="9">
-        <f>M19/SUM(M$2:M$29)</f>
-        <v>1.7543859649122806E-2</v>
+        <f t="shared" si="6"/>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="V19" s="9">
-        <f>N19/SUM(N$2:N$29)</f>
-        <v>4.0935672514619881E-2</v>
+        <f t="shared" si="7"/>
+        <v>3.888888888888889E-2</v>
       </c>
       <c r="W19" s="9">
-        <f>O19/SUM(O$2:O$29)</f>
-        <v>4.6783625730994149E-2</v>
+        <f t="shared" si="8"/>
+        <v>4.4444444444444446E-2</v>
       </c>
       <c r="X19" s="9">
-        <f>P19/SUM(P$2:P$29)</f>
-        <v>4.6783625730994149E-2</v>
+        <f t="shared" si="9"/>
+        <v>4.4444444444444446E-2</v>
       </c>
       <c r="Y19" s="9"/>
     </row>
@@ -44141,28 +44381,28 @@
         <v>7</v>
       </c>
       <c r="E20">
+        <f t="shared" si="10"/>
+        <v>19</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="1"/>
+        <v>Systems of Equations</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="H20" s="10">
         <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
-      <c r="F20" t="str">
-        <f t="shared" si="0"/>
-        <v>Systems of Equations</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="H20" s="10">
-        <f t="shared" si="2"/>
-        <v>2.2499999999999999E-2</v>
+        <v>2.3333333333333334E-2</v>
       </c>
       <c r="J20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>Systems of Equations</v>
       </c>
       <c r="K20">
         <f>COUNTIFS(math!$B:$B,$J20,math!$L:$L,K$1)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L20">
         <f>COUNTIFS(math!$B:$B,$J20,math!$L:$L,L$1)</f>
@@ -44185,32 +44425,32 @@
         <v>8</v>
       </c>
       <c r="R20" t="str">
+        <f t="shared" si="12"/>
+        <v>Systems of Equations</v>
+      </c>
+      <c r="S20" s="9">
+        <f t="shared" si="4"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="T20" s="9">
         <f t="shared" si="5"/>
-        <v>Systems of Equations</v>
-      </c>
-      <c r="S20" s="9">
-        <f>K20/SUM(K$2:K$29)</f>
-        <v>1.3157894736842105E-2</v>
-      </c>
-      <c r="T20" s="9">
-        <f>L20/SUM(L$2:L$29)</f>
-        <v>2.1929824561403508E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="U20" s="9">
-        <f>M20/SUM(M$2:M$29)</f>
-        <v>1.7543859649122806E-2</v>
+        <f t="shared" si="6"/>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="V20" s="9">
-        <f>N20/SUM(N$2:N$29)</f>
-        <v>2.3391812865497075E-2</v>
+        <f t="shared" si="7"/>
+        <v>2.2222222222222223E-2</v>
       </c>
       <c r="W20" s="9">
-        <f>O20/SUM(O$2:O$29)</f>
-        <v>2.3391812865497075E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.2222222222222223E-2</v>
       </c>
       <c r="X20" s="9">
-        <f>P20/SUM(P$2:P$29)</f>
-        <v>4.6783625730994149E-2</v>
+        <f t="shared" si="9"/>
+        <v>4.4444444444444446E-2</v>
       </c>
       <c r="Y20" s="9"/>
     </row>
@@ -44227,28 +44467,28 @@
         <v>11</v>
       </c>
       <c r="E21">
+        <f t="shared" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="1"/>
+        <v>Simplify (CommDenom)</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="H21" s="10">
         <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="F21" t="str">
-        <f t="shared" si="0"/>
-        <v>Simplify (CommDenom)</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="H21" s="10">
-        <f t="shared" si="2"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="J21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>Simplify (CommDenom)</v>
       </c>
       <c r="K21">
         <f>COUNTIFS(math!$B:$B,$J21,math!$L:$L,K$1)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L21">
         <f>COUNTIFS(math!$B:$B,$J21,math!$L:$L,L$1)</f>
@@ -44271,32 +44511,32 @@
         <v>1</v>
       </c>
       <c r="R21" t="str">
+        <f t="shared" si="12"/>
+        <v>Simplify (CommDenom)</v>
+      </c>
+      <c r="S21" s="9">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="T21" s="9">
         <f t="shared" si="5"/>
-        <v>Simplify (CommDenom)</v>
-      </c>
-      <c r="S21" s="9">
-        <f>K21/SUM(K$2:K$29)</f>
-        <v>2.1929824561403508E-2</v>
-      </c>
-      <c r="T21" s="9">
-        <f>L21/SUM(L$2:L$29)</f>
-        <v>4.3859649122807015E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="U21" s="9">
-        <f>M21/SUM(M$2:M$29)</f>
-        <v>5.8479532163742687E-3</v>
+        <f t="shared" si="6"/>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="V21" s="9">
-        <f>N21/SUM(N$2:N$29)</f>
-        <v>2.3391812865497075E-2</v>
+        <f t="shared" si="7"/>
+        <v>2.2222222222222223E-2</v>
       </c>
       <c r="W21" s="9">
-        <f>O21/SUM(O$2:O$29)</f>
-        <v>1.7543859649122806E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="X21" s="9">
-        <f>P21/SUM(P$2:P$29)</f>
-        <v>5.8479532163742687E-3</v>
+        <f t="shared" si="9"/>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="Y21" s="9"/>
     </row>
@@ -44313,23 +44553,23 @@
         <v>18</v>
       </c>
       <c r="E22">
+        <f t="shared" si="10"/>
+        <v>21</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="1"/>
+        <v>Transformations</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="H22" s="10">
         <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-      <c r="F22" t="str">
-        <f t="shared" si="0"/>
-        <v>Transformations</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="H22" s="10">
-        <f t="shared" si="2"/>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="J22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>Transformations</v>
       </c>
       <c r="K22">
@@ -44357,32 +44597,32 @@
         <v>4</v>
       </c>
       <c r="R22" t="str">
+        <f t="shared" si="12"/>
+        <v>Transformations</v>
+      </c>
+      <c r="S22" s="9">
+        <f t="shared" si="4"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="T22" s="9">
         <f t="shared" si="5"/>
-        <v>Transformations</v>
-      </c>
-      <c r="S22" s="9">
-        <f>K22/SUM(K$2:K$29)</f>
-        <v>1.3157894736842105E-2</v>
-      </c>
-      <c r="T22" s="9">
-        <f>L22/SUM(L$2:L$29)</f>
-        <v>1.3157894736842105E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="U22" s="9">
-        <f>M22/SUM(M$2:M$29)</f>
-        <v>2.3391812865497075E-2</v>
+        <f t="shared" si="6"/>
+        <v>2.2222222222222223E-2</v>
       </c>
       <c r="V22" s="9">
-        <f>N22/SUM(N$2:N$29)</f>
-        <v>1.7543859649122806E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="W22" s="9">
-        <f>O22/SUM(O$2:O$29)</f>
-        <v>1.7543859649122806E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="X22" s="9">
-        <f>P22/SUM(P$2:P$29)</f>
-        <v>2.3391812865497075E-2</v>
+        <f t="shared" si="9"/>
+        <v>2.2222222222222223E-2</v>
       </c>
       <c r="Y22" s="9"/>
     </row>
@@ -44399,23 +44639,23 @@
         <v>24</v>
       </c>
       <c r="E23">
+        <f t="shared" si="10"/>
+        <v>22</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="1"/>
+        <v>Absolute Values</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="H23" s="10">
         <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="F23" t="str">
-        <f t="shared" si="0"/>
-        <v>Absolute Values</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="H23" s="10">
-        <f t="shared" si="2"/>
         <v>1.5833333333333335E-2</v>
       </c>
       <c r="J23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>Absolute Values</v>
       </c>
       <c r="K23">
@@ -44436,39 +44676,39 @@
       </c>
       <c r="O23">
         <f>COUNTIFS(math!$B:$B,$J23,math!$L:$L,O$1)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P23">
         <f>COUNTIFS(math!$B:$B,$J23,math!$L:$L,P$1)</f>
         <v>2</v>
       </c>
       <c r="R23" t="str">
+        <f t="shared" si="12"/>
+        <v>Absolute Values</v>
+      </c>
+      <c r="S23" s="9">
+        <f t="shared" si="4"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="T23" s="9">
         <f t="shared" si="5"/>
-        <v>Absolute Values</v>
-      </c>
-      <c r="S23" s="9">
-        <f>K23/SUM(K$2:K$29)</f>
-        <v>1.7543859649122806E-2</v>
-      </c>
-      <c r="T23" s="9">
-        <f>L23/SUM(L$2:L$29)</f>
-        <v>1.3157894736842105E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="U23" s="9">
-        <f>M23/SUM(M$2:M$29)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V23" s="9">
-        <f>N23/SUM(N$2:N$29)</f>
-        <v>2.3391812865497075E-2</v>
+        <f t="shared" si="7"/>
+        <v>2.2222222222222223E-2</v>
       </c>
       <c r="W23" s="9">
-        <f>O23/SUM(O$2:O$29)</f>
-        <v>2.9239766081871343E-2</v>
+        <f t="shared" si="8"/>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="X23" s="9">
-        <f>P23/SUM(P$2:P$29)</f>
-        <v>1.1695906432748537E-2</v>
+        <f t="shared" si="9"/>
+        <v>1.1111111111111112E-2</v>
       </c>
       <c r="Y23" s="9"/>
     </row>
@@ -44485,23 +44725,23 @@
         <v>8</v>
       </c>
       <c r="E24">
+        <f t="shared" si="10"/>
+        <v>23</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="1"/>
+        <v>Sequences</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="H24" s="10">
         <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="F24" t="str">
-        <f t="shared" si="0"/>
-        <v>Sequences</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="H24" s="10">
-        <f t="shared" si="2"/>
         <v>1.5833333333333335E-2</v>
       </c>
       <c r="J24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>Sequences</v>
       </c>
       <c r="K24">
@@ -44529,32 +44769,32 @@
         <v>3</v>
       </c>
       <c r="R24" t="str">
+        <f t="shared" si="12"/>
+        <v>Sequences</v>
+      </c>
+      <c r="S24" s="9">
+        <f t="shared" si="4"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="T24" s="9">
         <f t="shared" si="5"/>
-        <v>Sequences</v>
-      </c>
-      <c r="S24" s="9">
-        <f>K24/SUM(K$2:K$29)</f>
-        <v>1.3157894736842105E-2</v>
-      </c>
-      <c r="T24" s="9">
-        <f>L24/SUM(L$2:L$29)</f>
-        <v>2.1929824561403508E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="U24" s="9">
-        <f>M24/SUM(M$2:M$29)</f>
-        <v>1.7543859649122806E-2</v>
+        <f t="shared" si="6"/>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="V24" s="9">
-        <f>N24/SUM(N$2:N$29)</f>
-        <v>1.1695906432748537E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.1111111111111112E-2</v>
       </c>
       <c r="W24" s="9">
-        <f>O24/SUM(O$2:O$29)</f>
-        <v>1.7543859649122806E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="X24" s="9">
-        <f>P24/SUM(P$2:P$29)</f>
-        <v>1.7543859649122806E-2</v>
+        <f t="shared" si="9"/>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="Y24" s="9"/>
     </row>
@@ -44564,30 +44804,30 @@
       </c>
       <c r="B25">
         <f>COUNTIF(math!B:B,A25)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25">
         <f>COUNTIF($B$2:$B$29,"&gt;"&amp;B25)+COUNTIF($B$2:$B25,B25)</f>
         <v>19</v>
       </c>
       <c r="E25">
+        <f t="shared" si="10"/>
+        <v>24</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="1"/>
+        <v>Matrices</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="H25" s="10">
         <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="F25" t="str">
-        <f t="shared" si="0"/>
-        <v>Matrices</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="H25" s="10">
-        <f t="shared" si="2"/>
         <v>1.4166666666666666E-2</v>
       </c>
       <c r="J25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>Matrices</v>
       </c>
       <c r="K25">
@@ -44604,7 +44844,7 @@
       </c>
       <c r="N25">
         <f>COUNTIFS(math!$B:$B,$J25,math!$L:$L,N$1)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O25">
         <f>COUNTIFS(math!$B:$B,$J25,math!$L:$L,O$1)</f>
@@ -44615,32 +44855,32 @@
         <v>3</v>
       </c>
       <c r="R25" t="str">
+        <f t="shared" si="12"/>
+        <v>Matrices</v>
+      </c>
+      <c r="S25" s="9">
+        <f t="shared" si="4"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="T25" s="9">
         <f t="shared" si="5"/>
-        <v>Matrices</v>
-      </c>
-      <c r="S25" s="9">
-        <f>K25/SUM(K$2:K$29)</f>
-        <v>1.3157894736842105E-2</v>
-      </c>
-      <c r="T25" s="9">
-        <f>L25/SUM(L$2:L$29)</f>
-        <v>8.771929824561403E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="U25" s="9">
-        <f>M25/SUM(M$2:M$29)</f>
-        <v>1.7543859649122806E-2</v>
+        <f t="shared" si="6"/>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="V25" s="9">
-        <f>N25/SUM(N$2:N$29)</f>
-        <v>1.1695906432748537E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="W25" s="9">
-        <f>O25/SUM(O$2:O$29)</f>
-        <v>1.7543859649122806E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="X25" s="9">
-        <f>P25/SUM(P$2:P$29)</f>
-        <v>1.7543859649122806E-2</v>
+        <f t="shared" si="9"/>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="Y25" s="9"/>
     </row>
@@ -44657,23 +44897,23 @@
         <v>13</v>
       </c>
       <c r="E26">
+        <f t="shared" si="10"/>
+        <v>25</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="1"/>
+        <v>Rational Functions</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="H26" s="10">
         <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="F26" t="str">
-        <f t="shared" si="0"/>
-        <v>Rational Functions</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="H26" s="10">
-        <f t="shared" si="2"/>
         <v>1.4166666666666666E-2</v>
       </c>
       <c r="J26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>Rational Functions</v>
       </c>
       <c r="K26">
@@ -44690,7 +44930,7 @@
       </c>
       <c r="N26">
         <f>COUNTIFS(math!$B:$B,$J26,math!$L:$L,N$1)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O26">
         <f>COUNTIFS(math!$B:$B,$J26,math!$L:$L,O$1)</f>
@@ -44698,35 +44938,35 @@
       </c>
       <c r="P26">
         <f>COUNTIFS(math!$B:$B,$J26,math!$L:$L,P$1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R26" t="str">
+        <f t="shared" si="12"/>
+        <v>Rational Functions</v>
+      </c>
+      <c r="S26" s="9">
+        <f t="shared" si="4"/>
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="T26" s="9">
         <f t="shared" si="5"/>
-        <v>Rational Functions</v>
-      </c>
-      <c r="S26" s="9">
-        <f>K26/SUM(K$2:K$29)</f>
-        <v>4.3859649122807015E-3</v>
-      </c>
-      <c r="T26" s="9">
-        <f>L26/SUM(L$2:L$29)</f>
-        <v>8.771929824561403E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="U26" s="9">
-        <f>M26/SUM(M$2:M$29)</f>
-        <v>2.3391812865497075E-2</v>
+        <f t="shared" si="6"/>
+        <v>2.2222222222222223E-2</v>
       </c>
       <c r="V26" s="9">
-        <f>N26/SUM(N$2:N$29)</f>
-        <v>1.1695906432748537E-2</v>
+        <f t="shared" si="7"/>
+        <v>2.2222222222222223E-2</v>
       </c>
       <c r="W26" s="9">
-        <f>O26/SUM(O$2:O$29)</f>
-        <v>1.7543859649122806E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="X26" s="9">
-        <f>P26/SUM(P$2:P$29)</f>
-        <v>5.8479532163742687E-3</v>
+        <f t="shared" si="9"/>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="Y26" s="9"/>
     </row>
@@ -44743,23 +44983,23 @@
         <v>16</v>
       </c>
       <c r="E27">
+        <f t="shared" si="10"/>
+        <v>26</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="1"/>
+        <v>Inequalities</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="H27" s="10">
         <f t="shared" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="F27" t="str">
-        <f t="shared" si="0"/>
-        <v>Inequalities</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="H27" s="10">
-        <f t="shared" si="2"/>
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="J27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>Inequalities</v>
       </c>
       <c r="K27">
@@ -44787,32 +45027,32 @@
         <v>5</v>
       </c>
       <c r="R27" t="str">
+        <f t="shared" si="12"/>
+        <v>Inequalities</v>
+      </c>
+      <c r="S27" s="9">
+        <f t="shared" si="4"/>
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="T27" s="9">
         <f t="shared" si="5"/>
-        <v>Inequalities</v>
-      </c>
-      <c r="S27" s="9">
-        <f>K27/SUM(K$2:K$29)</f>
-        <v>4.3859649122807015E-3</v>
-      </c>
-      <c r="T27" s="9">
-        <f>L27/SUM(L$2:L$29)</f>
-        <v>8.771929824561403E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="U27" s="9">
-        <f>M27/SUM(M$2:M$29)</f>
-        <v>1.7543859649122806E-2</v>
+        <f t="shared" si="6"/>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="V27" s="9">
-        <f>N27/SUM(N$2:N$29)</f>
-        <v>1.1695906432748537E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.1111111111111112E-2</v>
       </c>
       <c r="W27" s="9">
-        <f>O27/SUM(O$2:O$29)</f>
-        <v>1.1695906432748537E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.1111111111111112E-2</v>
       </c>
       <c r="X27" s="9">
-        <f>P27/SUM(P$2:P$29)</f>
-        <v>2.9239766081871343E-2</v>
+        <f t="shared" si="9"/>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="Y27" s="9"/>
     </row>
@@ -44829,23 +45069,23 @@
         <v>25</v>
       </c>
       <c r="E28">
+        <f t="shared" si="10"/>
+        <v>27</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="1"/>
+        <v>Imaginary Numbers</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="H28" s="10">
         <f t="shared" si="3"/>
-        <v>27</v>
-      </c>
-      <c r="F28" t="str">
-        <f t="shared" si="0"/>
-        <v>Imaginary Numbers</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="H28" s="10">
-        <f t="shared" si="2"/>
         <v>1.1666666666666667E-2</v>
       </c>
       <c r="J28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>Imaginary Numbers</v>
       </c>
       <c r="K28">
@@ -44862,7 +45102,7 @@
       </c>
       <c r="N28">
         <f>COUNTIFS(math!$B:$B,$J28,math!$L:$L,N$1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28">
         <f>COUNTIFS(math!$B:$B,$J28,math!$L:$L,O$1)</f>
@@ -44873,31 +45113,31 @@
         <v>0</v>
       </c>
       <c r="R28" t="str">
+        <f t="shared" si="12"/>
+        <v>Imaginary Numbers</v>
+      </c>
+      <c r="S28" s="9">
+        <f t="shared" si="4"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="T28" s="9">
         <f t="shared" si="5"/>
-        <v>Imaginary Numbers</v>
-      </c>
-      <c r="S28" s="9">
-        <f>K28/SUM(K$2:K$29)</f>
-        <v>1.7543859649122806E-2</v>
-      </c>
-      <c r="T28" s="9">
-        <f>L28/SUM(L$2:L$29)</f>
-        <v>1.7543859649122806E-2</v>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="U28" s="9">
-        <f>M28/SUM(M$2:M$29)</f>
-        <v>1.1695906432748537E-2</v>
+        <f t="shared" si="6"/>
+        <v>1.1111111111111112E-2</v>
       </c>
       <c r="V28" s="9">
-        <f>N28/SUM(N$2:N$29)</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="W28" s="9">
-        <f>O28/SUM(O$2:O$29)</f>
-        <v>1.7543859649122806E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="X28" s="9">
-        <f>P28/SUM(P$2:P$29)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y28" s="9"/>
@@ -44915,32 +45155,32 @@
         <v>28</v>
       </c>
       <c r="E29">
+        <f t="shared" si="10"/>
+        <v>28</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="1"/>
+        <v>Logs</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="H29" s="10">
         <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="F29" t="str">
-        <f t="shared" si="0"/>
-        <v>Logs</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="H29" s="10">
-        <f t="shared" si="2"/>
         <v>1.1666666666666667E-2</v>
       </c>
       <c r="J29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>Logs</v>
       </c>
       <c r="K29">
         <f>COUNTIFS(math!$B:$B,$J29,math!$L:$L,K$1)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <f>COUNTIFS(math!$B:$B,$J29,math!$L:$L,L$1)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M29">
         <f>COUNTIFS(math!$B:$B,$J29,math!$L:$L,M$1)</f>
@@ -44956,35 +45196,35 @@
       </c>
       <c r="P29">
         <f>COUNTIFS(math!$B:$B,$J29,math!$L:$L,P$1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" t="str">
+        <f t="shared" si="12"/>
+        <v>Logs</v>
+      </c>
+      <c r="S29" s="9">
+        <f t="shared" si="4"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="T29" s="9">
         <f t="shared" si="5"/>
-        <v>Logs</v>
-      </c>
-      <c r="S29" s="9">
-        <f>K29/SUM(K$2:K$29)</f>
-        <v>8.771929824561403E-3</v>
-      </c>
-      <c r="T29" s="9">
-        <f>L29/SUM(L$2:L$29)</f>
-        <v>1.7543859649122806E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="U29" s="9">
-        <f>M29/SUM(M$2:M$29)</f>
-        <v>5.8479532163742687E-3</v>
+        <f t="shared" si="6"/>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="V29" s="9">
-        <f>N29/SUM(N$2:N$29)</f>
-        <v>1.7543859649122806E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="W29" s="9">
-        <f>O29/SUM(O$2:O$29)</f>
-        <v>5.8479532163742687E-3</v>
+        <f t="shared" si="8"/>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="X29" s="9">
-        <f>P29/SUM(P$2:P$29)</f>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="Y29" s="9"/>
     </row>
